--- a/downloaded_files/CHES221_Tutorial-35833.xlsx
+++ b/downloaded_files/CHES221_Tutorial-35833.xlsx
@@ -528,7 +528,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.890625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="36.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -801,7 +801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.8251966088</x:v>
+        <x:v>45927.5481566319</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
